--- a/natmiOut/OldD7/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H2">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I2">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J2">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N2">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q2">
-        <v>1348.770130485714</v>
+        <v>1407.704741389917</v>
       </c>
       <c r="R2">
-        <v>1348.770130485714</v>
+        <v>12669.34267250925</v>
       </c>
       <c r="S2">
-        <v>0.5346586204674076</v>
+        <v>0.5186400398508128</v>
       </c>
       <c r="T2">
-        <v>0.5346586204674076</v>
+        <v>0.5186400398508126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H3">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I3">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J3">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N3">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q3">
-        <v>180.8746153321597</v>
+        <v>186.1292416944166</v>
       </c>
       <c r="R3">
-        <v>180.8746153321597</v>
+        <v>1675.16317524975</v>
       </c>
       <c r="S3">
-        <v>0.07169952101196073</v>
+        <v>0.06857551480183235</v>
       </c>
       <c r="T3">
-        <v>0.07169952101196073</v>
+        <v>0.06857551480183235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H4">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I4">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J4">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N4">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q4">
-        <v>196.0394710420255</v>
+        <v>222.9121681566611</v>
       </c>
       <c r="R4">
-        <v>196.0394710420255</v>
+        <v>2006.20951340995</v>
       </c>
       <c r="S4">
-        <v>0.07771093885860619</v>
+        <v>0.08212743224964314</v>
       </c>
       <c r="T4">
-        <v>0.07771093885860619</v>
+        <v>0.08212743224964314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H5">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I5">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J5">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N5">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q5">
-        <v>404.5103088819595</v>
+        <v>429.8437163842249</v>
       </c>
       <c r="R5">
-        <v>404.5103088819595</v>
+        <v>3868.593447458024</v>
       </c>
       <c r="S5">
-        <v>0.1603497281140035</v>
+        <v>0.1583671317147222</v>
       </c>
       <c r="T5">
-        <v>0.1603497281140035</v>
+        <v>0.1583671317147222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H6">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I6">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J6">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N6">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q6">
-        <v>51.92644502354504</v>
+        <v>53.89946424620333</v>
       </c>
       <c r="R6">
-        <v>51.92644502354504</v>
+        <v>485.0951782158299</v>
       </c>
       <c r="S6">
-        <v>0.02058387922044759</v>
+        <v>0.01985815594894365</v>
       </c>
       <c r="T6">
-        <v>0.02058387922044759</v>
+        <v>0.01985815594894365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H7">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I7">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J7">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N7">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q7">
-        <v>6.963511095710555</v>
+        <v>7.126683680823333</v>
       </c>
       <c r="R7">
-        <v>6.963511095710555</v>
+        <v>64.14015312741</v>
       </c>
       <c r="S7">
-        <v>0.002760367502134216</v>
+        <v>0.002625680939723818</v>
       </c>
       <c r="T7">
-        <v>0.002760367502134216</v>
+        <v>0.002625680939723818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H8">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I8">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J8">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N8">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q8">
-        <v>7.547344492158002</v>
+        <v>8.535061426120222</v>
       </c>
       <c r="R8">
-        <v>7.547344492158002</v>
+        <v>76.815552835082</v>
       </c>
       <c r="S8">
-        <v>0.002991801718589604</v>
+        <v>0.00314456893410861</v>
       </c>
       <c r="T8">
-        <v>0.002991801718589604</v>
+        <v>0.00314456893410861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H9">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I9">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J9">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N9">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q9">
-        <v>15.57328549977017</v>
+        <v>16.458242514571</v>
       </c>
       <c r="R9">
-        <v>15.57328549977017</v>
+        <v>148.124182631139</v>
       </c>
       <c r="S9">
-        <v>0.006173321274881531</v>
+        <v>0.006063703064041259</v>
       </c>
       <c r="T9">
-        <v>0.006173321274881531</v>
+        <v>0.006063703064041259</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H10">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I10">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J10">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N10">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q10">
-        <v>86.99188436334262</v>
+        <v>106.2560222444933</v>
       </c>
       <c r="R10">
-        <v>86.99188436334262</v>
+        <v>956.3042002004399</v>
       </c>
       <c r="S10">
-        <v>0.03448397902229319</v>
+        <v>0.03914785962634509</v>
       </c>
       <c r="T10">
-        <v>0.03448397902229319</v>
+        <v>0.03914785962634509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H11">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I11">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J11">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N11">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q11">
-        <v>11.66590456416247</v>
+        <v>14.04936153465333</v>
       </c>
       <c r="R11">
-        <v>11.66590456416247</v>
+        <v>126.44425381188</v>
       </c>
       <c r="S11">
-        <v>0.004624417682302466</v>
+        <v>0.005176200102172415</v>
       </c>
       <c r="T11">
-        <v>0.004624417682302466</v>
+        <v>0.005176200102172416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H12">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I12">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J12">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N12">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q12">
-        <v>12.64399515534746</v>
+        <v>16.82580132168622</v>
       </c>
       <c r="R12">
-        <v>12.64399515534746</v>
+        <v>151.432211895176</v>
       </c>
       <c r="S12">
-        <v>0.005012137245744159</v>
+        <v>0.006199122593978718</v>
       </c>
       <c r="T12">
-        <v>0.005012137245744159</v>
+        <v>0.006199122593978719</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H13">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I13">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J13">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N13">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q13">
-        <v>26.08977854615392</v>
+        <v>32.445357429628</v>
       </c>
       <c r="R13">
-        <v>26.08977854615392</v>
+        <v>292.008216866652</v>
       </c>
       <c r="S13">
-        <v>0.01034210699844273</v>
+        <v>0.011953828793431</v>
       </c>
       <c r="T13">
-        <v>0.01034210699844273</v>
+        <v>0.011953828793431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H14">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I14">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J14">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N14">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q14">
-        <v>109.5878170004028</v>
+        <v>132.86169121589</v>
       </c>
       <c r="R14">
-        <v>109.5878170004028</v>
+        <v>1195.75522094301</v>
       </c>
       <c r="S14">
-        <v>0.04344110959542834</v>
+        <v>0.04895017456488703</v>
       </c>
       <c r="T14">
-        <v>0.04344110959542834</v>
+        <v>0.04895017456488703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H15">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I15">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J15">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N15">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q15">
-        <v>14.6960952033397</v>
+        <v>17.56721072902999</v>
       </c>
       <c r="R15">
-        <v>14.6960952033397</v>
+        <v>158.10489656127</v>
       </c>
       <c r="S15">
-        <v>0.005825599047664047</v>
+        <v>0.006472279736428119</v>
       </c>
       <c r="T15">
-        <v>0.005825599047664047</v>
+        <v>0.00647227973642812</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H16">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I16">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J16">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N16">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q16">
-        <v>15.92824247203093</v>
+        <v>21.03884911593933</v>
       </c>
       <c r="R16">
-        <v>15.92824247203093</v>
+        <v>189.349642043454</v>
       </c>
       <c r="S16">
-        <v>0.006314027834750177</v>
+        <v>0.007751333943176396</v>
       </c>
       <c r="T16">
-        <v>0.006314027834750177</v>
+        <v>0.007751333943176397</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H17">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I17">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J17">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N17">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q17">
-        <v>32.86653574435908</v>
+        <v>40.56941874113699</v>
       </c>
       <c r="R17">
-        <v>32.86653574435908</v>
+        <v>365.124768670233</v>
       </c>
       <c r="S17">
-        <v>0.01302844440534405</v>
+        <v>0.01494697313575328</v>
       </c>
       <c r="T17">
-        <v>0.01302844440534405</v>
+        <v>0.01494697313575328</v>
       </c>
     </row>
   </sheetData>
